--- a/Result_files/V3_Bids_2020-08-31_2020-09-06.xlsx
+++ b/Result_files/V3_Bids_2020-08-31_2020-09-06.xlsx
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27.60000000000002</v>
+        <v>27.6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -548,19 +548,19 @@
         <v>0.26</v>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>47.8</v>
       </c>
       <c r="G2" t="n">
         <v>14.55599999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>4.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>11.27299999999999</v>
+        <v>11.63599999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>1658.224365812264</v>
+        <v>1866.475000812131</v>
       </c>
       <c r="K2" t="n">
         <v>26.9</v>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>27.60000000000002</v>
+        <v>27.6</v>
       </c>
       <c r="D3" t="n">
         <v>47.8</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2408.923993839804</v>
+        <v>2410.440064427318</v>
       </c>
       <c r="K3" t="n">
         <v>21.959999</v>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>27.60000000000002</v>
+        <v>27.6</v>
       </c>
       <c r="D4" t="n">
         <v>47.8</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>27.60000000000002</v>
+        <v>27.6</v>
       </c>
       <c r="D5" t="n">
         <v>47.8</v>
@@ -763,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>24.20000000000005</v>
+        <v>24.2</v>
       </c>
       <c r="D6" t="n">
-        <v>47.7</v>
+        <v>43.3</v>
       </c>
       <c r="E6" t="n">
         <v>0.26</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>787.9959881063161</v>
+        <v>2300.156028764863</v>
       </c>
       <c r="K6" t="n">
         <v>24.59999</v>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>24.20000000000005</v>
+        <v>24.2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>47.8</v>
       </c>
       <c r="G7" t="n">
-        <v>16.73400000000001</v>
+        <v>16.73399999999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>12.91700000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>1606.646852398331</v>
+        <v>1494.421597465541</v>
       </c>
       <c r="K7" t="n">
         <v>27.59999</v>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>24.20000000000005</v>
+        <v>24.2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -884,19 +884,19 @@
         <v>0.39</v>
       </c>
       <c r="F8" t="n">
-        <v>27.4</v>
+        <v>14.7</v>
       </c>
       <c r="G8" t="n">
         <v>16.73399999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>20.4</v>
+        <v>33.1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-740.2019700434034</v>
+        <v>-678.8376486276289</v>
       </c>
       <c r="K8" t="n">
         <v>32</v>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>24.20000000000005</v>
+        <v>24.2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0.39</v>
       </c>
       <c r="F9" t="n">
-        <v>47.8</v>
+        <v>29.2</v>
       </c>
       <c r="G9" t="n">
-        <v>16.50699999999999</v>
+        <v>16.50700000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>18.6</v>
       </c>
       <c r="I9" t="n">
         <v>12.77799999999996</v>
       </c>
       <c r="J9" t="n">
-        <v>-1595.111955643889</v>
+        <v>-801.6065312975257</v>
       </c>
       <c r="K9" t="n">
         <v>36.959999</v>
@@ -996,19 +996,19 @@
         <v>0.39</v>
       </c>
       <c r="F10" t="n">
-        <v>47.8</v>
+        <v>42.3</v>
       </c>
       <c r="G10" t="n">
-        <v>16.50699999999999</v>
+        <v>16.50700000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>13.00000000000001</v>
+        <v>12.778</v>
       </c>
       <c r="J10" t="n">
-        <v>-3431.148955589186</v>
+        <v>-834.1349696999998</v>
       </c>
       <c r="K10" t="n">
         <v>38.450001</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-1354.128665914609</v>
+        <v>-1366.49703364792</v>
       </c>
       <c r="K11" t="n">
         <v>37.549999</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-4060.799784689844</v>
+        <v>-2498.91688696011</v>
       </c>
       <c r="K12" t="n">
         <v>28.75</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-4397.578628270244</v>
+        <v>-3215.545698147347</v>
       </c>
       <c r="K13" t="n">
         <v>26.629999</v>
@@ -1214,10 +1214,10 @@
         <v>24.2</v>
       </c>
       <c r="D14" t="n">
-        <v>49.79999999999191</v>
+        <v>49.8</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2599999999999682</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-4197.648813621237</v>
+        <v>-2888.433725509723</v>
       </c>
       <c r="K14" t="n">
         <v>26.93</v>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.92900000000001</v>
+        <v>12.122</v>
       </c>
       <c r="J15" t="n">
-        <v>-4508.450370353273</v>
+        <v>-2009.621774292302</v>
       </c>
       <c r="K15" t="n">
         <v>26.620001</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10.92900000000001</v>
+        <v>12.122</v>
       </c>
       <c r="J16" t="n">
-        <v>-3509.694236819253</v>
+        <v>-1228.538536669397</v>
       </c>
       <c r="K16" t="n">
         <v>26.6</v>
@@ -1388,19 +1388,19 @@
         <v>0.39</v>
       </c>
       <c r="F17" t="n">
-        <v>49.8</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n">
         <v>14.14299999999997</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-2786.349167818522</v>
+        <v>-676.108332335587</v>
       </c>
       <c r="K17" t="n">
         <v>27.41</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>26.32</v>
+        <v>30.88</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1444,19 +1444,19 @@
         <v>0.3899999999999637</v>
       </c>
       <c r="F18" t="n">
-        <v>49.8</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="G18" t="n">
         <v>14.14299999999997</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>11.02400000000001</v>
+        <v>10.92899999999992</v>
       </c>
       <c r="J18" t="n">
-        <v>-1647.549231207161</v>
+        <v>-716.1582390400006</v>
       </c>
       <c r="K18" t="n">
         <v>34.740002</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>26.32</v>
+        <v>30.88</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0.3899999999999637</v>
       </c>
       <c r="F19" t="n">
-        <v>32.99999999999992</v>
+        <v>14.5</v>
       </c>
       <c r="G19" t="n">
         <v>14.14299999999997</v>
       </c>
       <c r="H19" t="n">
-        <v>16.80000000000008</v>
+        <v>35.3</v>
       </c>
       <c r="I19" t="n">
         <v>10.92899999999992</v>
       </c>
       <c r="J19" t="n">
-        <v>-678.4851068394802</v>
+        <v>-625.35221</v>
       </c>
       <c r="K19" t="n">
         <v>39.689999</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>26.32</v>
+        <v>30.88</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>0.39</v>
       </c>
       <c r="F20" t="n">
-        <v>1.6</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="G20" t="n">
         <v>14.14299999999997</v>
       </c>
       <c r="H20" t="n">
-        <v>48.2</v>
+        <v>42.7</v>
       </c>
       <c r="I20" t="n">
         <v>10.92899999999992</v>
       </c>
       <c r="J20" t="n">
-        <v>-585.8424691200003</v>
+        <v>-601.7418509699999</v>
       </c>
       <c r="K20" t="n">
         <v>43.389999</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>26.32</v>
+        <v>30.88</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>14.286</v>
+        <v>14.87</v>
       </c>
       <c r="H21" t="n">
         <v>49.8</v>
@@ -1624,7 +1624,7 @@
         <v>10.92899999999992</v>
       </c>
       <c r="J21" t="n">
-        <v>-34.29814869105602</v>
+        <v>-54.28295273647922</v>
       </c>
       <c r="K21" t="n">
         <v>53.959999</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>13.351</v>
+        <v>14.286</v>
       </c>
       <c r="H22" t="n">
         <v>49.8</v>
@@ -1680,7 +1680,7 @@
         <v>10.92899999999992</v>
       </c>
       <c r="J22" t="n">
-        <v>-65.33419794770377</v>
+        <v>-65.33419794770673</v>
       </c>
       <c r="K22" t="n">
         <v>49.220001</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>14.42899999999992</v>
+        <v>14.643</v>
       </c>
       <c r="H23" t="n">
         <v>49.8</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>14.42899999999992</v>
+        <v>15.694</v>
       </c>
       <c r="H24" t="n">
         <v>49.8</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.42899999999992</v>
+        <v>15.694</v>
       </c>
       <c r="H25" t="n">
         <v>49.8</v>
@@ -1848,7 +1848,7 @@
         <v>11.63599999999991</v>
       </c>
       <c r="J25" t="n">
-        <v>-210.6174261260257</v>
+        <v>-210.617426126026</v>
       </c>
       <c r="K25" t="n">
         <v>36.860001</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>16.302</v>
+        <v>16.357</v>
       </c>
       <c r="H26" t="n">
         <v>47.8</v>
@@ -1904,7 +1904,7 @@
         <v>11.27299999999997</v>
       </c>
       <c r="J26" t="n">
-        <v>-142.3577062674418</v>
+        <v>-142.3577062674414</v>
       </c>
       <c r="K26" t="n">
         <v>30.23</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>414.0359663046819</v>
+        <v>414.035966304683</v>
       </c>
       <c r="K27" t="n">
         <v>28.700001</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>403.9501403233525</v>
+        <v>403.9501403233513</v>
       </c>
       <c r="K28" t="n">
         <v>28.30001</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2616.9759650859</v>
+        <v>2616.975965085901</v>
       </c>
       <c r="K29" t="n">
         <v>26.1</v>
@@ -2107,13 +2107,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>22.46000000000004</v>
+        <v>22.46</v>
       </c>
       <c r="D30" t="n">
-        <v>38.3</v>
+        <v>44.5</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2190.814370897372</v>
+        <v>872.7733385314627</v>
       </c>
       <c r="K30" t="n">
         <v>26.950001</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>22.46000000000004</v>
+        <v>22.46</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2175,16 +2175,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.113</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>47.8</v>
       </c>
       <c r="I31" t="n">
-        <v>12.91200000000001</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-371.2124404709375</v>
+        <v>-463.6729977413094</v>
       </c>
       <c r="K31" t="n">
         <v>29.129999</v>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>22.46000000000004</v>
+        <v>22.46</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2228,19 +2228,19 @@
         <v>0.26</v>
       </c>
       <c r="F32" t="n">
-        <v>27.9</v>
+        <v>31.2</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>17.11299999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>19.9</v>
+        <v>16.6</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-665.6971479199996</v>
+        <v>-670.30598996</v>
       </c>
       <c r="K32" t="n">
         <v>36.900002</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>22.46000000000004</v>
+        <v>22.46</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.93700000000001</v>
+        <v>15.882</v>
       </c>
       <c r="J33" t="n">
-        <v>-1718.070718804103</v>
+        <v>-1397.031496117018</v>
       </c>
       <c r="K33" t="n">
         <v>41.200001</v>
@@ -2343,16 +2343,16 @@
         <v>47.8</v>
       </c>
       <c r="G34" t="n">
-        <v>16.11199999999998</v>
+        <v>16.11199999999991</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>15.937</v>
+        <v>15.882</v>
       </c>
       <c r="J34" t="n">
-        <v>-3342.232486833761</v>
+        <v>-1928.14586948812</v>
       </c>
       <c r="K34" t="n">
         <v>40.349998</v>
@@ -2408,7 +2408,7 @@
         <v>12.349</v>
       </c>
       <c r="J35" t="n">
-        <v>-4066.901958872957</v>
+        <v>-1747.873538512613</v>
       </c>
       <c r="K35" t="n">
         <v>41</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-4676.016762730703</v>
+        <v>-4032.261396806075</v>
       </c>
       <c r="K36" t="n">
         <v>40.52</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-4735.842007537243</v>
+        <v>-3333.371233069412</v>
       </c>
       <c r="K37" t="n">
         <v>38.830002</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>21.8</v>
+        <v>30.62</v>
       </c>
       <c r="D38" t="n">
         <v>49.8</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-3916.121293218124</v>
+        <v>-4329.92773933294</v>
       </c>
       <c r="K38" t="n">
         <v>33.849998</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>21.8</v>
+        <v>30.62</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>12.205</v>
       </c>
       <c r="J39" t="n">
-        <v>-4461.804361962611</v>
+        <v>-3452.67434552973</v>
       </c>
       <c r="K39" t="n">
         <v>32.779999</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>21.8</v>
+        <v>30.62</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>10.92599999999999</v>
+        <v>12.205</v>
       </c>
       <c r="J40" t="n">
-        <v>-2411.925662889454</v>
+        <v>-2297.780162209056</v>
       </c>
       <c r="K40" t="n">
         <v>33.60001</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>21.8</v>
+        <v>30.62</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10.92599999999999</v>
+        <v>11.023</v>
       </c>
       <c r="J41" t="n">
-        <v>-1727.50383940488</v>
+        <v>-961.9161411729148</v>
       </c>
       <c r="K41" t="n">
         <v>36.82</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>27.65</v>
+        <v>28.64</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2788,19 +2788,19 @@
         <v>0.26</v>
       </c>
       <c r="F42" t="n">
-        <v>23.7</v>
+        <v>35.1</v>
       </c>
       <c r="G42" t="n">
         <v>14.685</v>
       </c>
       <c r="H42" t="n">
-        <v>26.1</v>
+        <v>14.7</v>
       </c>
       <c r="I42" t="n">
         <v>10.92599999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>-649.0399284000002</v>
+        <v>-695.0726108399994</v>
       </c>
       <c r="K42" t="n">
         <v>39.439999</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>27.65</v>
+        <v>28.64</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2844,19 +2844,19 @@
         <v>0.26</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="G43" t="n">
         <v>14.685</v>
       </c>
       <c r="H43" t="n">
-        <v>49.40000000000001</v>
+        <v>29.1</v>
       </c>
       <c r="I43" t="n">
         <v>10.92599999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>-548.8959031399997</v>
+        <v>-636.9260646000002</v>
       </c>
       <c r="K43" t="n">
         <v>42.209999</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>27.65</v>
+        <v>28.64</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>16.39</v>
+        <v>14.63599999999991</v>
       </c>
       <c r="H44" t="n">
         <v>49.8</v>
@@ -2912,7 +2912,7 @@
         <v>10.92599999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>-308.0162401529003</v>
+        <v>-564.7783443028098</v>
       </c>
       <c r="K44" t="n">
         <v>46.380001</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>27.65</v>
+        <v>28.64</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>16.033</v>
+        <v>14.87</v>
       </c>
       <c r="H45" t="n">
         <v>49.8</v>
@@ -2968,7 +2968,7 @@
         <v>10.92599999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>-8.966153808211107</v>
+        <v>-24.98567517154101</v>
       </c>
       <c r="K45" t="n">
         <v>52.740002</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.033</v>
+        <v>14.916</v>
       </c>
       <c r="H46" t="n">
         <v>49.8</v>
@@ -3024,7 +3024,7 @@
         <v>10.92599999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>-52.94202029223566</v>
+        <v>-52.94202029223582</v>
       </c>
       <c r="K46" t="n">
         <v>47.290001</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>14.64299999999997</v>
+        <v>15.707</v>
       </c>
       <c r="H47" t="n">
         <v>49.8</v>
@@ -3080,7 +3080,7 @@
         <v>11.63599999999991</v>
       </c>
       <c r="J47" t="n">
-        <v>-138.0902491344472</v>
+        <v>-138.090249134448</v>
       </c>
       <c r="K47" t="n">
         <v>43.400002</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>15.6939999999999</v>
+        <v>15.841</v>
       </c>
       <c r="H48" t="n">
         <v>49.8</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>12.554</v>
+        <v>12.381</v>
       </c>
       <c r="J49" t="n">
         <v>2025.045336054016</v>
@@ -3239,7 +3239,7 @@
         <v>47.8</v>
       </c>
       <c r="G50" t="n">
-        <v>14.556</v>
+        <v>14.55599999999998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2451.464604847842</v>
+        <v>2451.464604847843</v>
       </c>
       <c r="K52" t="n">
         <v>30.74</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>29.4</v>
+        <v>28.08</v>
       </c>
       <c r="D54" t="n">
         <v>49.8</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>29.4</v>
+        <v>28.08</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>12.91199999999998</v>
+        <v>12.917</v>
       </c>
       <c r="J55" t="n">
-        <v>1662.737506140701</v>
+        <v>1717.231751016019</v>
       </c>
       <c r="K55" t="n">
         <v>29</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>29.4</v>
+        <v>28.08</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>12.917</v>
       </c>
       <c r="J56" t="n">
-        <v>1001.470234766657</v>
+        <v>1350.605337266486</v>
       </c>
       <c r="K56" t="n">
         <v>29.6</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>29.4</v>
+        <v>28.08</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3637,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>12.774</v>
+        <v>12.778</v>
       </c>
       <c r="J57" t="n">
-        <v>-1611.373129905818</v>
+        <v>-1025.759083908312</v>
       </c>
       <c r="K57" t="n">
         <v>31.76</v>
@@ -3693,10 +3693,10 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>12.774</v>
+        <v>12.778</v>
       </c>
       <c r="J58" t="n">
-        <v>-2463.47789417463</v>
+        <v>-2027.975644729673</v>
       </c>
       <c r="K58" t="n">
         <v>35.939999</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-3452.260776559163</v>
+        <v>-1877.431048506807</v>
       </c>
       <c r="K59" t="n">
         <v>38.299999</v>
@@ -3790,7 +3790,7 @@
         <v>26.2</v>
       </c>
       <c r="D60" t="n">
-        <v>47.8</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E60" t="n">
         <v>0.2599999999999909</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-3712.130462037435</v>
+        <v>-39.74826489999998</v>
       </c>
       <c r="K60" t="n">
         <v>36.84</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-3951.828165482218</v>
+        <v>-1829.223482777216</v>
       </c>
       <c r="K61" t="n">
         <v>35.849998</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-2101.048271943686</v>
+        <v>-1550.768290492478</v>
       </c>
       <c r="K62" t="n">
         <v>30.99</v>
@@ -3973,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>10.92599999999999</v>
+        <v>10.929</v>
       </c>
       <c r="J63" t="n">
-        <v>-1814.757303710731</v>
+        <v>-497.2440054049449</v>
       </c>
       <c r="K63" t="n">
         <v>30.290001</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>10.92599999999999</v>
+        <v>10.929</v>
       </c>
       <c r="J64" t="n">
-        <v>-2657.457796477098</v>
+        <v>-801.1425592283258</v>
       </c>
       <c r="K64" t="n">
         <v>30</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>10.92599999999999</v>
+        <v>10.929</v>
       </c>
       <c r="J65" t="n">
-        <v>-1178.723153757813</v>
+        <v>-2058.238063570999</v>
       </c>
       <c r="K65" t="n">
         <v>31.67</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>26.59</v>
+        <v>33.33</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         <v>0.26</v>
       </c>
       <c r="F66" t="n">
-        <v>30.2</v>
+        <v>49.8</v>
       </c>
       <c r="G66" t="n">
         <v>14.14299999999997</v>
       </c>
       <c r="H66" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>10.92599999999999</v>
+        <v>10.929</v>
       </c>
       <c r="J66" t="n">
-        <v>-648.2511008599997</v>
+        <v>-939.1028019019134</v>
       </c>
       <c r="K66" t="n">
         <v>34.709999</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>26.59</v>
+        <v>33.33</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0.26</v>
       </c>
       <c r="F67" t="n">
-        <v>7.300000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="G67" t="n">
-        <v>14.14299999999999</v>
+        <v>14.14299999999997</v>
       </c>
       <c r="H67" t="n">
-        <v>42.5</v>
+        <v>36</v>
       </c>
       <c r="I67" t="n">
         <v>10.92599999999999</v>
       </c>
       <c r="J67" t="n">
-        <v>-568.2974572819239</v>
+        <v>-591.7459225800001</v>
       </c>
       <c r="K67" t="n">
         <v>37</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>26.59</v>
+        <v>33.33</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -4244,19 +4244,19 @@
         <v>0.39</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G68" t="n">
-        <v>14.62700000000001</v>
+        <v>14.14300000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>49.8</v>
+        <v>47.6</v>
       </c>
       <c r="I68" t="n">
         <v>10.92599999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>-185.7593186263134</v>
+        <v>-551.7330135399994</v>
       </c>
       <c r="K68" t="n">
         <v>43.98</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>26.59</v>
+        <v>33.33</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>14.54</v>
+        <v>14.46199999999998</v>
       </c>
       <c r="H69" t="n">
         <v>49.8</v>
@@ -4312,7 +4312,7 @@
         <v>10.92599999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>2.097646190957801</v>
+        <v>0.7481179911706426</v>
       </c>
       <c r="K69" t="n">
         <v>46.389999</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>14.54</v>
+        <v>14.46199999999998</v>
       </c>
       <c r="H70" t="n">
         <v>49.8</v>
@@ -4368,7 +4368,7 @@
         <v>10.92599999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>-21.07841089359477</v>
+        <v>-21.07841089359089</v>
       </c>
       <c r="K70" t="n">
         <v>46.91</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>14.42899999999992</v>
+        <v>15.544</v>
       </c>
       <c r="H71" t="n">
         <v>49.8</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>421.3092174183059</v>
+        <v>421.3092174183032</v>
       </c>
       <c r="K75" t="n">
         <v>32.799999</v>
@@ -4686,10 +4686,10 @@
         <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E76" t="n">
-        <v>0.26</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>404.2340095148788</v>
+        <v>2727.332200757083</v>
       </c>
       <c r="K76" t="n">
         <v>30.959999</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2647.073110688185</v>
+        <v>2647.073110688186</v>
       </c>
       <c r="K77" t="n">
         <v>29.52</v>
@@ -4792,13 +4792,13 @@
         <v>44077.16666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>22.46000000000004</v>
       </c>
       <c r="D78" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E78" t="n">
         <v>0.2400000000000091</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2694.7302873761</v>
+        <v>2621.107253116795</v>
       </c>
       <c r="K78" t="n">
         <v>28.940001</v>
@@ -4848,7 +4848,7 @@
         <v>44077.20833333334</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>22.46000000000004</v>
@@ -4860,7 +4860,7 @@
         <v>0.26</v>
       </c>
       <c r="F79" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G79" t="n">
         <v>16.73099999999999</v>
@@ -4869,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>16.30600000000001</v>
+        <v>16.31000000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>1862.71145941347</v>
+        <v>1920.005597509999</v>
       </c>
       <c r="K79" t="n">
         <v>29.5</v>
@@ -4904,7 +4904,7 @@
         <v>44077.25</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
         <v>22.46000000000004</v>
@@ -4916,7 +4916,7 @@
         <v>0.26</v>
       </c>
       <c r="F80" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G80" t="n">
         <v>16.73099999999999</v>
@@ -4925,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>16.306</v>
+        <v>16.30600000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>570.0068060318079</v>
+        <v>1986.105882916352</v>
       </c>
       <c r="K80" t="n">
         <v>29.48</v>
@@ -4960,7 +4960,7 @@
         <v>44077.29166666666</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>22.46000000000004</v>
@@ -4972,19 +4972,19 @@
         <v>0.27</v>
       </c>
       <c r="F81" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>16.2949999999999</v>
+        <v>16.505</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I81" t="n">
-        <v>15.34</v>
+        <v>12.79899999999992</v>
       </c>
       <c r="J81" t="n">
-        <v>-1297.591098044034</v>
+        <v>-545.2343839241051</v>
       </c>
       <c r="K81" t="n">
         <v>31.700001</v>
@@ -5028,19 +5028,19 @@
         <v>0.27</v>
       </c>
       <c r="F82" t="n">
-        <v>47.8</v>
+        <v>14.1</v>
       </c>
       <c r="G82" t="n">
         <v>16.2949999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="I82" t="n">
-        <v>12.79899999999992</v>
+        <v>12.799</v>
       </c>
       <c r="J82" t="n">
-        <v>-2849.972960901791</v>
+        <v>-760.910749977099</v>
       </c>
       <c r="K82" t="n">
         <v>32.639999</v>
@@ -5078,7 +5078,7 @@
         <v>24</v>
       </c>
       <c r="D83" t="n">
-        <v>47.8</v>
+        <v>45.49999999999999</v>
       </c>
       <c r="E83" t="n">
         <v>0.25</v>
@@ -5090,13 +5090,13 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2.300000000000011</v>
       </c>
       <c r="I83" t="n">
         <v>12.799</v>
       </c>
       <c r="J83" t="n">
-        <v>-3276.6138780412</v>
+        <v>-48.14559187315981</v>
       </c>
       <c r="K83" t="n">
         <v>33.110001</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-2975.711160621951</v>
+        <v>-121.5351799842784</v>
       </c>
       <c r="K84" t="n">
         <v>29.6</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-2179.966238543122</v>
+        <v>-224.1915802278366</v>
       </c>
       <c r="K85" t="n">
         <v>27.59</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-2777.452651651832</v>
+        <v>936.7267118766453</v>
       </c>
       <c r="K86" t="n">
         <v>25.9</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>12.20500000000002</v>
+        <v>12.206</v>
       </c>
       <c r="J87" t="n">
-        <v>-2560.504475265476</v>
+        <v>-374.5068605776152</v>
       </c>
       <c r="K87" t="n">
         <v>24.2</v>
@@ -5373,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>12.20500000000002</v>
       </c>
       <c r="J88" t="n">
-        <v>-1584.250680575524</v>
+        <v>-725.4952795445488</v>
       </c>
       <c r="K88" t="n">
         <v>24.709999</v>
@@ -5432,7 +5432,7 @@
         <v>11.024</v>
       </c>
       <c r="J89" t="n">
-        <v>378.6471716885326</v>
+        <v>655.0734389055774</v>
       </c>
       <c r="K89" t="n">
         <v>27.379999</v>
@@ -5485,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>11.024</v>
+        <v>11.02399999999999</v>
       </c>
       <c r="J90" t="n">
-        <v>1237.151598640461</v>
+        <v>1332.735554988619</v>
       </c>
       <c r="K90" t="n">
         <v>28.9</v>
@@ -5532,19 +5532,19 @@
         <v>0.26</v>
       </c>
       <c r="F91" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>14.143</v>
       </c>
       <c r="H91" t="n">
-        <v>43.90000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="I91" t="n">
         <v>11.023</v>
       </c>
       <c r="J91" t="n">
-        <v>-587.5522384099999</v>
+        <v>-568.4521371439365</v>
       </c>
       <c r="K91" t="n">
         <v>33.200001</v>
@@ -5600,7 +5600,7 @@
         <v>10.93199999999996</v>
       </c>
       <c r="J92" t="n">
-        <v>-253.7282522368978</v>
+        <v>-191.4660982854983</v>
       </c>
       <c r="K92" t="n">
         <v>38.99998</v>
@@ -5653,10 +5653,10 @@
         <v>47.8</v>
       </c>
       <c r="I93" t="n">
-        <v>10.932</v>
+        <v>10.93199999999996</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.7480048484465782</v>
+        <v>-0.748004848446564</v>
       </c>
       <c r="K93" t="n">
         <v>40.700001</v>
@@ -5768,7 +5768,7 @@
         <v>11.75299999999999</v>
       </c>
       <c r="J95" t="n">
-        <v>-133.2701406145875</v>
+        <v>-133.2701406145862</v>
       </c>
       <c r="K95" t="n">
         <v>40.9</v>
@@ -5824,7 +5824,7 @@
         <v>11.75299999999999</v>
       </c>
       <c r="J96" t="n">
-        <v>-148.3216087799781</v>
+        <v>-148.3216087799798</v>
       </c>
       <c r="K96" t="n">
         <v>38.619999</v>
@@ -5880,7 +5880,7 @@
         <v>11.75299999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>-193.2597330479086</v>
+        <v>-193.2597330479068</v>
       </c>
       <c r="K97" t="n">
         <v>33.80002</v>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>15.286</v>
+        <v>14.55599999999998</v>
       </c>
       <c r="H98" t="n">
         <v>47.8</v>
@@ -5936,7 +5936,7 @@
         <v>11.63599999999991</v>
       </c>
       <c r="J98" t="n">
-        <v>-123.1222791420211</v>
+        <v>-123.1222791420222</v>
       </c>
       <c r="K98" t="n">
         <v>36.82</v>
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="E99" t="n">
         <v>0.25</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>418.893501033979</v>
+        <v>1286.647370993338</v>
       </c>
       <c r="K99" t="n">
         <v>33.759998</v>
@@ -6030,7 +6030,7 @@
         <v>25</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E100" t="n">
         <v>0.25</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>502.9188453945613</v>
+        <v>2723.041129902791</v>
       </c>
       <c r="K100" t="n">
         <v>30.74</v>
@@ -6213,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>12.912</v>
+        <v>12.91200000000001</v>
       </c>
       <c r="J103" t="n">
-        <v>1847.708838562726</v>
+        <v>1919.56975557126</v>
       </c>
       <c r="K103" t="n">
         <v>29</v>
@@ -6260,19 +6260,19 @@
         <v>0.26</v>
       </c>
       <c r="F104" t="n">
-        <v>9.300000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="G104" t="n">
         <v>16.73399999999998</v>
       </c>
       <c r="H104" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>12.90999999999991</v>
+        <v>12.912</v>
       </c>
       <c r="J104" t="n">
-        <v>-717.4786382099995</v>
+        <v>1555.458677084504</v>
       </c>
       <c r="K104" t="n">
         <v>29.6</v>
@@ -6316,19 +6316,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F105" t="n">
-        <v>39</v>
+        <v>23.6</v>
       </c>
       <c r="G105" t="n">
-        <v>16.29499999999999</v>
+        <v>16.2949999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>8.800000000000001</v>
+        <v>24.2</v>
       </c>
       <c r="I105" t="n">
         <v>12.77199999999999</v>
       </c>
       <c r="J105" t="n">
-        <v>-812.3913301159881</v>
+        <v>-752.8384907272927</v>
       </c>
       <c r="K105" t="n">
         <v>31.76</v>
@@ -6372,19 +6372,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F106" t="n">
-        <v>47.8</v>
+        <v>46.19999999999999</v>
       </c>
       <c r="G106" t="n">
         <v>16.2949999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1.600000000000011</v>
       </c>
       <c r="I106" t="n">
-        <v>12.774</v>
+        <v>12.77199999999999</v>
       </c>
       <c r="J106" t="n">
-        <v>-2767.293556577836</v>
+        <v>-820.2908158400005</v>
       </c>
       <c r="K106" t="n">
         <v>35.939999</v>
@@ -6422,7 +6422,7 @@
         <v>21</v>
       </c>
       <c r="D107" t="n">
-        <v>47.8</v>
+        <v>40.2</v>
       </c>
       <c r="E107" t="n">
         <v>0.2599999999999908</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-1539.001856991541</v>
+        <v>-39.31705259999999</v>
       </c>
       <c r="K107" t="n">
         <v>38.299999</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-1989.54343102276</v>
+        <v>-795.5480397624717</v>
       </c>
       <c r="K108" t="n">
         <v>36.84</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-2558.353934655755</v>
+        <v>-903.9748291503228</v>
       </c>
       <c r="K109" t="n">
         <v>35.849998</v>
@@ -6590,7 +6590,7 @@
         <v>27</v>
       </c>
       <c r="D110" t="n">
-        <v>47.8</v>
+        <v>28</v>
       </c>
       <c r="E110" t="n">
         <v>0.2599999999999909</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-2309.633295146569</v>
+        <v>-35.62867767427334</v>
       </c>
       <c r="K110" t="n">
         <v>30.99</v>
@@ -6652,19 +6652,19 @@
         <v>0.39</v>
       </c>
       <c r="F111" t="n">
-        <v>32.6</v>
+        <v>47.8</v>
       </c>
       <c r="G111" t="n">
         <v>14.14299999999997</v>
       </c>
       <c r="H111" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>10.92399999999992</v>
+        <v>10.92599999999998</v>
       </c>
       <c r="J111" t="n">
-        <v>-675.2867119999991</v>
+        <v>834.9208496482411</v>
       </c>
       <c r="K111" t="n">
         <v>30.290001</v>
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>10.926</v>
+        <v>10.92599999999998</v>
       </c>
       <c r="J112" t="n">
-        <v>-370.0316065209396</v>
+        <v>481.7151761668753</v>
       </c>
       <c r="K112" t="n">
         <v>30</v>
@@ -6764,19 +6764,19 @@
         <v>0.39</v>
       </c>
       <c r="F113" t="n">
-        <v>46.2</v>
+        <v>47.8</v>
       </c>
       <c r="G113" t="n">
         <v>14.14299999999997</v>
       </c>
       <c r="H113" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>10.92399999999992</v>
+        <v>10.92599999999999</v>
       </c>
       <c r="J113" t="n">
-        <v>-701.52416464</v>
+        <v>186.770389579454</v>
       </c>
       <c r="K113" t="n">
         <v>31.67</v>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>26.59000000000001</v>
+        <v>32.4</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -6820,19 +6820,19 @@
         <v>0.26</v>
       </c>
       <c r="F114" t="n">
-        <v>39.2</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G114" t="n">
         <v>14.14299999999997</v>
       </c>
       <c r="H114" t="n">
-        <v>10.6</v>
+        <v>44</v>
       </c>
       <c r="I114" t="n">
         <v>10.92399999999992</v>
       </c>
       <c r="J114" t="n">
-        <v>-679.2733832799995</v>
+        <v>-563.3208758487294</v>
       </c>
       <c r="K114" t="n">
         <v>34.709999</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>26.59000000000001</v>
+        <v>32.4</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -6876,19 +6876,19 @@
         <v>0.26</v>
       </c>
       <c r="F115" t="n">
-        <v>6.4</v>
+        <v>3.499999999999998</v>
       </c>
       <c r="G115" t="n">
         <v>14.14299999999997</v>
       </c>
       <c r="H115" t="n">
-        <v>43.40000000000001</v>
+        <v>46.3</v>
       </c>
       <c r="I115" t="n">
         <v>10.92399999999992</v>
       </c>
       <c r="J115" t="n">
-        <v>-567.0585480799997</v>
+        <v>-557.1371144799995</v>
       </c>
       <c r="K115" t="n">
         <v>37</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>26.59000000000001</v>
+        <v>32.4</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>14.14299999999997</v>
+        <v>15.066</v>
       </c>
       <c r="H116" t="n">
         <v>49.8</v>
@@ -6944,7 +6944,7 @@
         <v>10.92399999999992</v>
       </c>
       <c r="J116" t="n">
-        <v>-385.8212473624442</v>
+        <v>-282.8357084242674</v>
       </c>
       <c r="K116" t="n">
         <v>43.98</v>
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>26.59000000000001</v>
+        <v>32.4</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>14.286</v>
+        <v>14.303</v>
       </c>
       <c r="H117" t="n">
         <v>49.8</v>
@@ -7000,7 +7000,7 @@
         <v>10.92399999999992</v>
       </c>
       <c r="J117" t="n">
-        <v>-6.056499542072322</v>
+        <v>-6.056499542071334</v>
       </c>
       <c r="K117" t="n">
         <v>46.389999</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>14.286</v>
+        <v>15.095</v>
       </c>
       <c r="H118" t="n">
         <v>49.8</v>
@@ -7056,7 +7056,7 @@
         <v>10.92399999999992</v>
       </c>
       <c r="J118" t="n">
-        <v>-32.00711126064584</v>
+        <v>-32.00711126064571</v>
       </c>
       <c r="K118" t="n">
         <v>46.91</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>14.42899999999992</v>
+        <v>15.805</v>
       </c>
       <c r="H119" t="n">
         <v>49.8</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>14.42899999999992</v>
+        <v>16.091</v>
       </c>
       <c r="H120" t="n">
         <v>49.8</v>
@@ -7168,7 +7168,7 @@
         <v>11.63599999999991</v>
       </c>
       <c r="J120" t="n">
-        <v>-116.6439406367899</v>
+        <v>-116.6439406367898</v>
       </c>
       <c r="K120" t="n">
         <v>43</v>
@@ -7224,7 +7224,7 @@
         <v>11.63599999999991</v>
       </c>
       <c r="J121" t="n">
-        <v>-162.307788093816</v>
+        <v>-162.3077880938157</v>
       </c>
       <c r="K121" t="n">
         <v>39.259998</v>
@@ -7259,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>25.22000000000003</v>
+        <v>25.22</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -7280,7 +7280,7 @@
         <v>12.906</v>
       </c>
       <c r="J122" t="n">
-        <v>2118.898571645324</v>
+        <v>2118.898571645323</v>
       </c>
       <c r="K122" t="n">
         <v>30.23</v>
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>25.22000000000003</v>
+        <v>25.22</v>
       </c>
       <c r="D123" t="n">
         <v>47.8</v>
@@ -7371,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>25.22000000000003</v>
+        <v>25.22</v>
       </c>
       <c r="D124" t="n">
         <v>47.8</v>
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>25.22000000000003</v>
+        <v>25.22</v>
       </c>
       <c r="D125" t="n">
         <v>47.8</v>
@@ -7557,10 +7557,10 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>12.917</v>
+        <v>12.91200000000001</v>
       </c>
       <c r="J127" t="n">
-        <v>2020.198898883494</v>
+        <v>1890.636155036583</v>
       </c>
       <c r="K127" t="n">
         <v>29.129999</v>
@@ -7604,19 +7604,19 @@
         <v>0.26</v>
       </c>
       <c r="F128" t="n">
-        <v>4.999999999999989</v>
+        <v>1.9</v>
       </c>
       <c r="G128" t="n">
         <v>17.113</v>
       </c>
       <c r="H128" t="n">
-        <v>42.80000000000001</v>
+        <v>45.90000000000001</v>
       </c>
       <c r="I128" t="n">
         <v>12.90999999999991</v>
       </c>
       <c r="J128" t="n">
-        <v>-684.7887529400001</v>
+        <v>-684.3603138896493</v>
       </c>
       <c r="K128" t="n">
         <v>36.900002</v>
@@ -7660,19 +7660,19 @@
         <v>0.27</v>
       </c>
       <c r="F129" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>16.13</v>
+        <v>17.694</v>
       </c>
       <c r="H129" t="n">
-        <v>22.8</v>
+        <v>47.8</v>
       </c>
       <c r="I129" t="n">
         <v>12.77199999999999</v>
       </c>
       <c r="J129" t="n">
-        <v>-786.4766933999994</v>
+        <v>-547.2266095660623</v>
       </c>
       <c r="K129" t="n">
         <v>41.200001</v>
@@ -7716,19 +7716,19 @@
         <v>0.27</v>
       </c>
       <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>17.617</v>
+      </c>
+      <c r="H130" t="n">
         <v>47.8</v>
       </c>
-      <c r="G130" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>12.778</v>
+        <v>12.77199999999999</v>
       </c>
       <c r="J130" t="n">
-        <v>-1384.934269387305</v>
+        <v>-553.4166811799698</v>
       </c>
       <c r="K130" t="n">
         <v>40.349998</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-3241.294055487779</v>
+        <v>-1219.926877594299</v>
       </c>
       <c r="K131" t="n">
         <v>41</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-1165.853440995063</v>
+        <v>-2731.035769198745</v>
       </c>
       <c r="K132" t="n">
         <v>40.52</v>
@@ -7878,7 +7878,7 @@
         <v>24</v>
       </c>
       <c r="D133" t="n">
-        <v>47.8</v>
+        <v>44.90000000000001</v>
       </c>
       <c r="E133" t="n">
         <v>0.25</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-4052.240948247582</v>
+        <v>-40.81174430000004</v>
       </c>
       <c r="K133" t="n">
         <v>38.830002</v>
@@ -7934,10 +7934,10 @@
         <v>30.62</v>
       </c>
       <c r="D134" t="n">
-        <v>49.80000000000037</v>
+        <v>49.8</v>
       </c>
       <c r="E134" t="n">
-        <v>0.2500000000000011</v>
+        <v>0.25</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-2522.933100652576</v>
+        <v>-1781.580017382744</v>
       </c>
       <c r="K134" t="n">
         <v>33.849998</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>12.219</v>
+        <v>10.929</v>
       </c>
       <c r="J135" t="n">
-        <v>-4162.013280010471</v>
+        <v>-2675.596058258515</v>
       </c>
       <c r="K135" t="n">
         <v>32.779999</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>12.219</v>
+        <v>10.92599999999998</v>
       </c>
       <c r="J136" t="n">
-        <v>-1859.824041261442</v>
+        <v>957.0656359228316</v>
       </c>
       <c r="K136" t="n">
         <v>33.60001</v>
@@ -8117,10 +8117,10 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>11.037</v>
+        <v>10.929</v>
       </c>
       <c r="J137" t="n">
-        <v>-1065.585572930592</v>
+        <v>-723.9570797999102</v>
       </c>
       <c r="K137" t="n">
         <v>36.82</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>30.1</v>
+        <v>33.33</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -8164,19 +8164,19 @@
         <v>0.26</v>
       </c>
       <c r="F138" t="n">
-        <v>43.7</v>
+        <v>20.4</v>
       </c>
       <c r="G138" t="n">
         <v>14.67500000000001</v>
       </c>
       <c r="H138" t="n">
-        <v>6.100000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="I138" t="n">
         <v>10.92399999999992</v>
       </c>
       <c r="J138" t="n">
-        <v>-729.7091981038901</v>
+        <v>-629.2150808587212</v>
       </c>
       <c r="K138" t="n">
         <v>39.439999</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>30.1</v>
+        <v>33.33</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -8220,19 +8220,19 @@
         <v>0.26</v>
       </c>
       <c r="F139" t="n">
-        <v>16.7</v>
+        <v>25.7</v>
       </c>
       <c r="G139" t="n">
         <v>14.67500000000001</v>
       </c>
       <c r="H139" t="n">
-        <v>33.1</v>
+        <v>24.10000000000001</v>
       </c>
       <c r="I139" t="n">
-        <v>10.92399999999992</v>
+        <v>10.92400000000001</v>
       </c>
       <c r="J139" t="n">
-        <v>-617.1268909399995</v>
+        <v>-655.8630709400006</v>
       </c>
       <c r="K139" t="n">
         <v>42.209999</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>30.1</v>
+        <v>33.33</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>16.69</v>
+        <v>14.77000000000001</v>
       </c>
       <c r="H140" t="n">
         <v>49.8</v>
@@ -8288,7 +8288,7 @@
         <v>10.92399999999992</v>
       </c>
       <c r="J140" t="n">
-        <v>-321.080921388908</v>
+        <v>-283.4416368895458</v>
       </c>
       <c r="K140" t="n">
         <v>46.380001</v>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>30.1</v>
+        <v>33.33</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>16.619</v>
+        <v>14.87</v>
       </c>
       <c r="H141" t="n">
         <v>49.8</v>
@@ -8344,7 +8344,7 @@
         <v>10.92399999999992</v>
       </c>
       <c r="J141" t="n">
-        <v>10.42542241293192</v>
+        <v>10.42542241293419</v>
       </c>
       <c r="K141" t="n">
         <v>52.740002</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>16.619</v>
+        <v>14.46199999999999</v>
       </c>
       <c r="H142" t="n">
         <v>49.8</v>
@@ -8400,7 +8400,7 @@
         <v>10.92399999999992</v>
       </c>
       <c r="J142" t="n">
-        <v>-20.81593210770721</v>
+        <v>-20.81593210770732</v>
       </c>
       <c r="K142" t="n">
         <v>47.290001</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>16.619</v>
+        <v>15.68700000000001</v>
       </c>
       <c r="H143" t="n">
         <v>49.8</v>
@@ -8456,7 +8456,7 @@
         <v>11.63599999999991</v>
       </c>
       <c r="J143" t="n">
-        <v>-94.96678208805317</v>
+        <v>-94.96678208805299</v>
       </c>
       <c r="K143" t="n">
         <v>43.400002</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>15.83</v>
+        <v>15.83000000000001</v>
       </c>
       <c r="H144" t="n">
         <v>49.8</v>
@@ -8512,7 +8512,7 @@
         <v>11.63599999999991</v>
       </c>
       <c r="J144" t="n">
-        <v>-116.5704578192519</v>
+        <v>-116.5704578192516</v>
       </c>
       <c r="K144" t="n">
         <v>40.84</v>
@@ -8556,19 +8556,19 @@
         <v>0.26</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G145" t="n">
-        <v>17.33300000000003</v>
+        <v>15.6939999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>11.63599999999991</v>
       </c>
       <c r="J145" t="n">
-        <v>-173.1736914102062</v>
+        <v>2263.267254263516</v>
       </c>
       <c r="K145" t="n">
         <v>30.74</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>2670.629218763195</v>
+        <v>2670.629218763196</v>
       </c>
       <c r="K147" t="n">
         <v>31.1</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2557.062678533375</v>
+        <v>2557.062678533373</v>
       </c>
       <c r="K149" t="n">
         <v>27.809999</v>
@@ -8827,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>25.39999999999997</v>
+        <v>25.4</v>
       </c>
       <c r="D150" t="n">
         <v>47.8</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2569.096253769267</v>
+        <v>2569.096253769268</v>
       </c>
       <c r="K150" t="n">
         <v>27.48</v>
@@ -8883,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>25.39999999999997</v>
+        <v>25.4</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -8901,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>11.64299999999997</v>
+        <v>12.912</v>
       </c>
       <c r="J151" t="n">
-        <v>1852.907880618038</v>
+        <v>1669.183422945785</v>
       </c>
       <c r="K151" t="n">
         <v>30.66</v>
@@ -8939,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>25.39999999999997</v>
+        <v>25.4</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>12.91</v>
       </c>
       <c r="J152" t="n">
-        <v>816.0726544170499</v>
+        <v>278.3172657441432</v>
       </c>
       <c r="K152" t="n">
         <v>34.889999</v>
@@ -8995,7 +8995,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>25.39999999999997</v>
+        <v>25.4</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -9004,19 +9004,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F153" t="n">
-        <v>46.1</v>
+        <v>28.5</v>
       </c>
       <c r="G153" t="n">
         <v>16.2949999999999</v>
       </c>
       <c r="H153" t="n">
-        <v>1.7</v>
+        <v>19.3</v>
       </c>
       <c r="I153" t="n">
         <v>11.50599999999991</v>
       </c>
       <c r="J153" t="n">
-        <v>-807.1465040099998</v>
+        <v>-734.9908382039405</v>
       </c>
       <c r="K153" t="n">
         <v>39.9</v>
@@ -9060,19 +9060,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F154" t="n">
-        <v>47.8</v>
+        <v>43.90000000000001</v>
       </c>
       <c r="G154" t="n">
         <v>16.2949999999999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="I154" t="n">
-        <v>12.778</v>
+        <v>11.50599999999991</v>
       </c>
       <c r="J154" t="n">
-        <v>-2790.192984842498</v>
+        <v>-796.176330399222</v>
       </c>
       <c r="K154" t="n">
         <v>39.200001</v>
@@ -9113,7 +9113,7 @@
         <v>47.8</v>
       </c>
       <c r="E155" t="n">
-        <v>0.2599999999999908</v>
+        <v>0.2600000000002369</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-2706.259534812366</v>
+        <v>-617.0608134260126</v>
       </c>
       <c r="K155" t="n">
         <v>39</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-2785.384688762649</v>
+        <v>-3529.404253475202</v>
       </c>
       <c r="K156" t="n">
         <v>36.450001</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-1414.441635709226</v>
+        <v>-993.3888121488251</v>
       </c>
       <c r="K157" t="n">
         <v>33.369999</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>25.96</v>
+        <v>28.52</v>
       </c>
       <c r="D158" t="n">
         <v>49.8</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-385.3321961122573</v>
+        <v>-3019.329571477399</v>
       </c>
       <c r="K158" t="n">
         <v>31.16</v>
@@ -9331,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>25.96</v>
+        <v>28.52</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -9349,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>10.929</v>
+        <v>10.926</v>
       </c>
       <c r="J159" t="n">
-        <v>-992.4104578703841</v>
+        <v>-3326.025431778561</v>
       </c>
       <c r="K159" t="n">
         <v>30.59</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>25.96</v>
+        <v>28.52</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -9405,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>10.929</v>
+        <v>10.926</v>
       </c>
       <c r="J160" t="n">
-        <v>-372.8402610317578</v>
+        <v>-2627.689387401899</v>
       </c>
       <c r="K160" t="n">
         <v>29.92</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>25.96</v>
+        <v>28.52</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -9461,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>10.929</v>
+        <v>10.926</v>
       </c>
       <c r="J161" t="n">
-        <v>-667.6977270354115</v>
+        <v>-2452.423765439024</v>
       </c>
       <c r="K161" t="n">
         <v>31.49</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>30.88</v>
+        <v>30.1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -9517,10 +9517,10 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>10.929</v>
+        <v>10.926</v>
       </c>
       <c r="J162" t="n">
-        <v>-1334.557142119821</v>
+        <v>-1528.099099931336</v>
       </c>
       <c r="K162" t="n">
         <v>34.380001</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>30.88</v>
+        <v>30.1</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>0.26</v>
       </c>
       <c r="F163" t="n">
-        <v>22.7</v>
+        <v>33.1</v>
       </c>
       <c r="G163" t="n">
         <v>14.143</v>
       </c>
       <c r="H163" t="n">
-        <v>27.1</v>
+        <v>16.7</v>
       </c>
       <c r="I163" t="n">
-        <v>9.675999999999988</v>
+        <v>9.675999999999989</v>
       </c>
       <c r="J163" t="n">
-        <v>-610.4853627599996</v>
+        <v>-646.4962405199997</v>
       </c>
       <c r="K163" t="n">
         <v>40.110001</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>30.88</v>
+        <v>30.1</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -9620,19 +9620,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G164" t="n">
         <v>14.143</v>
       </c>
       <c r="H164" t="n">
-        <v>49.8</v>
+        <v>48.3</v>
       </c>
       <c r="I164" t="n">
         <v>9.675999999999988</v>
       </c>
       <c r="J164" t="n">
-        <v>-343.0071289070191</v>
+        <v>-537.0785734799999</v>
       </c>
       <c r="K164" t="n">
         <v>43.82</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>30.88</v>
+        <v>30.1</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>9.675999999999988</v>
       </c>
       <c r="J165" t="n">
-        <v>0.9872154117362222</v>
+        <v>-3.343357049826409</v>
       </c>
       <c r="K165" t="n">
         <v>50.110001</v>
@@ -9900,19 +9900,19 @@
         <v>0.26</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G169" t="n">
         <v>14.429</v>
       </c>
       <c r="H169" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>10.202</v>
+        <v>11.636</v>
       </c>
       <c r="J169" t="n">
-        <v>-154.9624604331464</v>
+        <v>2303.364303169461</v>
       </c>
       <c r="K169" t="n">
         <v>35.990002</v>
